--- a/ExcelConvertTools2/Config.xlsx
+++ b/ExcelConvertTools2/Config.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Xiong Program\CSharpObject\OtherProgram\ExcelConvertToolsXiongSetup\ExcelConvertToolsXiongSetup\ExcelConvertTools2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3DA909-B8DC-4CC6-9F1E-B633436270CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6C4C8B-36EC-409C-B2A3-D147A92B03D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1073" yWindow="5940" windowWidth="14985" windowHeight="8647" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7455" yWindow="3893" windowWidth="14985" windowHeight="8647" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="显示列集合" sheetId="5" r:id="rId1"/>
+    <sheet name="显示collectionoffice集合" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Trunk Vessel</t>
   </si>
@@ -185,6 +186,30 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GU1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -810,7 +835,7 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,6 +847,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1179,224 +1207,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512016DE-072A-4D66-AFFB-726386210645}">
-  <dimension ref="A1:AU2"/>
+  <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="3"/>
-    <col min="2" max="2" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="23" width="9.06640625" style="3"/>
-    <col min="24" max="24" width="12.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="32" width="9.06640625" style="3"/>
-    <col min="33" max="33" width="15.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.06640625" style="3"/>
+    <col min="1" max="2" width="9.06640625" style="3"/>
+    <col min="3" max="3" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="24" width="9.06640625" style="3"/>
+    <col min="25" max="25" width="12.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="33" width="9.06640625" style="3"/>
+    <col min="34" max="34" width="15.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:48" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
-      <c r="AE2" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="AE2" s="1"/>
       <c r="AF2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AH2" s="1"/>
+      <c r="AH2" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
@@ -1410,6 +1441,41 @@
       <c r="AS2" s="1"/>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DF1656-C2E1-4242-9B39-964416D20068}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/ExcelConvertTools2/Config.xlsx
+++ b/ExcelConvertTools2/Config.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Xiong Program\CSharpObject\OtherProgram\ExcelConvertToolsXiongSetup\ExcelConvertToolsXiongSetup\ExcelConvertTools2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6C4C8B-36EC-409C-B2A3-D147A92B03D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F58C3B-CF60-421F-BE44-D3D7C0F72766}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7455" yWindow="3893" windowWidth="14985" windowHeight="8647" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21705" windowHeight="15196" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="显示列集合" sheetId="5" r:id="rId1"/>
     <sheet name="显示collectionoffice集合" sheetId="6" r:id="rId2"/>
+    <sheet name="货币种类" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>Trunk Vessel</t>
   </si>
@@ -210,6 +211,34 @@
   </si>
   <si>
     <t>TS1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HK1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNNGB</t>
+  </si>
+  <si>
+    <t>CNSHA</t>
+  </si>
+  <si>
+    <t>CNXGG</t>
+  </si>
+  <si>
+    <t>CNXMN</t>
+  </si>
+  <si>
+    <t>CNTAO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNY</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -835,7 +864,7 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,6 +878,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1452,16 +1487,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DF1656-C2E1-4242-9B39-964416D20068}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1475,6 +1510,84 @@
       </c>
       <c r="E1" s="4" t="s">
         <v>52</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D2895E-862E-4CDA-8BEB-52E19B6F5DE0}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConvertTools2/Config.xlsx
+++ b/ExcelConvertTools2/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Xiong Program\CSharpObject\OtherProgram\ExcelConvertToolsXiongSetup\ExcelConvertToolsXiongSetup\ExcelConvertTools2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F58C3B-CF60-421F-BE44-D3D7C0F72766}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0B2486-4BD7-44A3-9ED6-B2BC706CEECB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21705" windowHeight="15196" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21705" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="显示列集合" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>Trunk Vessel</t>
   </si>
@@ -239,6 +239,10 @@
   </si>
   <si>
     <t>CNY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNGUA</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1244,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512016DE-072A-4D66-AFFB-726386210645}">
   <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AK3" sqref="AK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1487,10 +1491,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DF1656-C2E1-4242-9B39-964416D20068}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1563,6 +1567,16 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConvertTools2/Config.xlsx
+++ b/ExcelConvertTools2/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Xiong Program\CSharpObject\OtherProgram\ExcelConvertToolsXiongSetup\ExcelConvertToolsXiongSetup\ExcelConvertTools2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0B2486-4BD7-44A3-9ED6-B2BC706CEECB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C66696-1A8D-4629-A0FB-0C72E0B589A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21705" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>Trunk Vessel</t>
   </si>
@@ -242,7 +242,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>CNGUA</t>
+    <t>CNNSA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1248,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512016DE-072A-4D66-AFFB-726386210645}">
   <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AK3" sqref="AK3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1416,7 +1420,9 @@
       <c r="C2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>47</v>
@@ -1425,9 +1431,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
         <v>47</v>
@@ -1494,7 +1498,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/ExcelConvertTools2/Config.xlsx
+++ b/ExcelConvertTools2/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Xiong Program\CSharpObject\OtherProgram\ExcelConvertToolsXiongSetup\ExcelConvertToolsXiongSetup\ExcelConvertTools2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C66696-1A8D-4629-A0FB-0C72E0B589A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3D6AD6-67F0-4E3D-B7D9-6029F2F30A66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21705" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21705" windowHeight="15196" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="显示列集合" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>Trunk Vessel</t>
   </si>
@@ -218,22 +218,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>CNNGB</t>
-  </si>
-  <si>
-    <t>CNSHA</t>
-  </si>
-  <si>
-    <t>CNXGG</t>
-  </si>
-  <si>
-    <t>CNXMN</t>
-  </si>
-  <si>
-    <t>CNTAO</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>USD</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -242,11 +226,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>CNNSA</t>
+    <t>Y</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
+    <t>TA1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GU1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1252,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512016DE-072A-4D66-AFFB-726386210645}">
   <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1421,7 +1409,7 @@
         <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -1497,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DF1656-C2E1-4242-9B39-964416D20068}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1530,7 +1518,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -1540,7 +1528,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -1550,7 +1538,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -1570,7 +1558,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -1579,9 +1567,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="F7" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -1602,10 +1588,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
